--- a/Bio/Cell Bio Lab/c elegans chemotaxis/data.xlsx
+++ b/Bio/Cell Bio Lab/c elegans chemotaxis/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coyne\College-Work\Bio\Cell Bio Lab\c elegans chemotaxis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEF210A-5144-4E3E-9CBF-1A97605CFAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462EDE8F-240F-4F82-87A8-B4D42675D23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2E2DE7FB-DE1A-4D24-BACE-DEEF545FF894}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Experiment</t>
   </si>
@@ -55,6 +54,24 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Average Chemotaxis Index</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Wilton's Butter</t>
+  </si>
+  <si>
+    <t>Melatonin</t>
   </si>
 </sst>
 </file>
@@ -123,37 +140,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -163,6 +150,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Chemotaxis Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -178,22 +176,40 @@
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numLit>
+              <c:numRef>
+                <c:f>Sheet1!$O$4:$O$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.24743582965269675</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.3837773059952035E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14459371366896842</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
             </c:plus>
             <c:minus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numLit>
+              <c:numRef>
+                <c:f>Sheet1!$O$4:$O$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.24743582965269675</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.3837773059952035E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14459371366896842</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
             </c:minus>
             <c:spPr>
               <a:noFill/>
@@ -209,27 +225,44 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$4:$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wilton's Butter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Melatonin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$6,Sheet1!$F$6,Sheet1!$I$6)</c:f>
+              <c:f>Sheet1!$N$4:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.36261777438248027</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.85112085769980494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85112085769980494</c:v>
+                  <c:v>-0.36261777438248027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-81CD-4F1D-93CE-5BE53881796C}"/>
+              <c16:uniqueId val="{00000000-C6DB-4609-84F8-B25A2C6FA4C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -243,19 +276,20 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1140917792"/>
-        <c:axId val="1145020592"/>
+        <c:axId val="1523333888"/>
+        <c:axId val="267252768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1140917792"/>
+        <c:axId val="1523333888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -289,15 +323,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1145020592"/>
+        <c:crossAx val="267252768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1145020592"/>
+        <c:axId val="267252768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -317,6 +351,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Chemotaxis</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Index</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -348,7 +442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1140917792"/>
+        <c:crossAx val="1523333888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,23 +1045,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DEC71D1-8818-B6FF-230F-8C2E08209766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06EE1FF-02A2-4C23-B7E9-42A21376A053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,15 +1379,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3593FCF-15B6-4E9D-B0BA-213CB23CAC85}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1333,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1364,8 +1463,17 @@
         <f>(G3-H3)/(G3+H3)</f>
         <v>0.78947368421052633</v>
       </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1396,8 +1504,17 @@
         <f>(G4-H4)/(G4+H4)</f>
         <v>0.875</v>
       </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O4">
+        <v>0.24743582965269675</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1428,8 +1545,17 @@
         <f>(G5-H5)/(G5+H5)</f>
         <v>0.88888888888888884</v>
       </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>0.85112085769980494</v>
+      </c>
+      <c r="O5">
+        <v>5.3837773059952035E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C6">
         <f>AVERAGE(C3:C5)</f>
         <v>-0.36261777438248027</v>
@@ -1442,8 +1568,17 @@
         <f>AVERAGE(I3:I5)</f>
         <v>0.85112085769980494</v>
       </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>-0.36261777438248027</v>
+      </c>
+      <c r="O6">
+        <v>0.14459371366896842</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C7">
         <f>_xlfn.STDEV.S(C3:C5)</f>
         <v>0.14459371366896842</v>
@@ -1453,8 +1588,8 @@
         <v>0.24743582965269675</v>
       </c>
       <c r="I7">
-        <f ca="1">_xlfn.STDEV.S(I3:I50)</f>
-        <v>0</v>
+        <f>_xlfn.STDEV.S(I3:I5)</f>
+        <v>5.3837773059952035E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Bio/Cell Bio Lab/c elegans chemotaxis/data.xlsx
+++ b/Bio/Cell Bio Lab/c elegans chemotaxis/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coyne\College-Work\Bio\Cell Bio Lab\c elegans chemotaxis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462EDE8F-240F-4F82-87A8-B4D42675D23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE380F4-8996-4ABD-885F-16F3CCF7EFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2E2DE7FB-DE1A-4D24-BACE-DEEF545FF894}"/>
+    <workbookView xWindow="-26895" yWindow="1905" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{2E2DE7FB-DE1A-4D24-BACE-DEEF545FF894}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wilton's Butter Example" sheetId="2" r:id="rId1"/>
+    <sheet name="Experiment" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Experiment</t>
   </si>
@@ -59,9 +60,6 @@
     <t>Average Chemotaxis Index</t>
   </si>
   <si>
-    <t>Chemical</t>
-  </si>
-  <si>
     <t>Standard Deviation</t>
   </si>
   <si>
@@ -72,6 +70,18 @@
   </si>
   <si>
     <t>Melatonin</t>
+  </si>
+  <si>
+    <t>Chemotaxis Index</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -150,9 +160,360 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Wilton''s Butter Example'!$D$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.16834141974339581</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Wilton''s Butter Example'!$D$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.16834141974339581</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wilton''s Butter Example'!$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.82792397660818706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EDF-4E77-8A0B-5BD25E5B8BC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="7488800"/>
+        <c:axId val="13711904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="7488800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wilton's</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Butter</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="13711904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="13711904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chemotaxis</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7488800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$3</c:f>
+              <c:f>Experiment!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -177,7 +538,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$O$4:$O$6</c:f>
+                <c:f>Experiment!$P$4:$P$6</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -195,7 +556,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$O$4:$O$6</c:f>
+                <c:f>Experiment!$P$4:$P$6</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -227,7 +588,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$4:$M$6</c:f>
+              <c:f>Experiment!$N$4:$N$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -244,7 +605,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$N$6</c:f>
+              <c:f>Experiment!$O$4:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -538,7 +899,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1046,15 +1950,58 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F452259-B515-4E58-9CEC-F2628A678DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1123949</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1378,217 +2325,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEE3056-599A-4284-8447-E5953DE07232}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>(B2-C2)/(B2+C2)</f>
+        <v>0.91111111111111109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>(B3-C3)/(B3+C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>(B4-C4)/(B4+C4)</f>
+        <v>0.78947368421052633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>(B5-C5)/(B5+C5)</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>AVERAGE(D2:D5)</f>
+        <v>0.82792397660818706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>_xlfn.STDEV.S(D2:D5)</f>
+        <v>0.16834141974339581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3593FCF-15B6-4E9D-B0BA-213CB23CAC85}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>9</v>
       </c>
-      <c r="C3">
-        <f>(A3-B3)/(A3+B3)</f>
+      <c r="D3">
+        <f>(B3-C3)/(B3+C3)</f>
         <v>-0.2857142857142857</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <f>(D3-E3)/(D3+E3)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>(E3-F3)/(E3+F3)</f>
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <f>(G3-H3)/(G3+H3)</f>
+      <c r="J3">
+        <f>(H3-I3)/(H3+I3)</f>
         <v>0.78947368421052633</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="C4">
-        <f>(A4-B4)/(A4+B4)</f>
+      <c r="D4">
+        <f>(B4-C4)/(B4+C4)</f>
         <v>-0.27272727272727271</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <f>(D4-E4)/(D4+E4)</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>(E4-F4)/(E4+F4)</f>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <f>(G4-H4)/(G4+H4)</f>
+      <c r="J4">
+        <f>(H4-I4)/(H4+I4)</f>
         <v>0.875</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="P4">
+        <v>0.24743582965269675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <f>(B5-C5)/(B5+C5)</f>
+        <v>-0.52941176470588236</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>(E5-F5)/(E5+F5)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>(H5-I5)/(H5+I5)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="N5" t="s">
         <v>9</v>
       </c>
-      <c r="N4">
+      <c r="O5">
+        <v>0.85112085769980494</v>
+      </c>
+      <c r="P5">
+        <v>5.3837773059952035E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(D3:D5)</f>
+        <v>-0.36261777438248027</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(G3:G5)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="O4">
+      <c r="J6">
+        <f>AVERAGE(J3:J5)</f>
+        <v>0.85112085769980494</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>-0.36261777438248027</v>
+      </c>
+      <c r="P6">
+        <v>0.14459371366896842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.STDEV.S(D3:D5)</f>
+        <v>0.14459371366896842</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.STDEV.S(G3:G5)</f>
         <v>0.24743582965269675</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <f>(A5-B5)/(A5+B5)</f>
-        <v>-0.52941176470588236</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <f>(D5-E5)/(D5+E5)</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f>(G5-H5)/(G5+H5)</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>0.85112085769980494</v>
-      </c>
-      <c r="O5">
-        <v>5.3837773059952035E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <f>AVERAGE(C3:C5)</f>
-        <v>-0.36261777438248027</v>
-      </c>
-      <c r="F6">
-        <f>AVERAGE(F3:F5)</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="I6">
-        <f>AVERAGE(I3:I5)</f>
-        <v>0.85112085769980494</v>
-      </c>
-      <c r="M6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6">
-        <v>-0.36261777438248027</v>
-      </c>
-      <c r="O6">
-        <v>0.14459371366896842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C7">
-        <f>_xlfn.STDEV.S(C3:C5)</f>
-        <v>0.14459371366896842</v>
-      </c>
-      <c r="F7">
-        <f>_xlfn.STDEV.S(F3:F5)</f>
-        <v>0.24743582965269675</v>
-      </c>
-      <c r="I7">
-        <f>_xlfn.STDEV.S(I3:I5)</f>
+      <c r="J7">
+        <f>_xlfn.STDEV.S(J3:J5)</f>
         <v>5.3837773059952035E-2</v>
       </c>
     </row>
